--- a/graphique courbes.xlsx
+++ b/graphique courbes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Joffrey\enjmin\algorithmique et programmation\TP note\tp-python-algo-tri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E1A1C0-D005-4C23-9B95-100296EDF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3E8EE-9EED-4B19-B40E-00C8FE3F9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation de liste" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="insertion sort" sheetId="3" r:id="rId3"/>
     <sheet name="Factoriel" sheetId="4" r:id="rId4"/>
     <sheet name="fusion sort" sheetId="5" r:id="rId5"/>
+    <sheet name="python sort" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1964,6 +1965,377 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Tri</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'python sort'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python sort'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10117459297180099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246790170669555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31505799293518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.429985761642456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53733015060424805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641157627105712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73253798484802202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90100598335266102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98679924011230402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0364351272582999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D75-4C45-8E49-81548CEA6DC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1588692592"/>
+        <c:axId val="1658829856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1588692592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658829856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1658829856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588692592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2164,6 +2536,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4229,6 +4641,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4949,6 +5877,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9826C1-AD30-99AA-D7EC-4FE5CC25DFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -5664,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A572C2D-0C00-4794-8482-58F2F2580ED8}">
   <dimension ref="D4:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5754,4 +6723,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30F36DF-0907-4515-80AC-DA0F35503E4D}">
+  <dimension ref="B5:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>1000000</v>
+      </c>
+      <c r="C5">
+        <v>0.10117459297180099</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>2000000</v>
+      </c>
+      <c r="C6">
+        <v>0.246790170669555</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>3000000</v>
+      </c>
+      <c r="C7">
+        <v>0.31505799293518</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>4000000</v>
+      </c>
+      <c r="C8">
+        <v>0.429985761642456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>5000000</v>
+      </c>
+      <c r="C9">
+        <v>0.53733015060424805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>6000000</v>
+      </c>
+      <c r="C10">
+        <v>0.641157627105712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>7000000</v>
+      </c>
+      <c r="C11">
+        <v>0.73253798484802202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>8000000</v>
+      </c>
+      <c r="C12">
+        <v>0.90100598335266102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>9000000</v>
+      </c>
+      <c r="C13">
+        <v>0.98679924011230402</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>10000000</v>
+      </c>
+      <c r="C14">
+        <v>1.0364351272582999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/graphique courbes.xlsx
+++ b/graphique courbes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Joffrey\enjmin\algorithmique et programmation\TP note\tp-python-algo-tri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3E8EE-9EED-4B19-B40E-00C8FE3F9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA94111-7664-4D46-8CD2-A42A532E82A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation de liste" sheetId="2" r:id="rId1"/>
@@ -1007,34 +1007,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7726898193359299E-2</c:v>
+                  <c:v>2.8821706771850499E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.110095739364624</c:v>
+                  <c:v>0.16448330879211401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21297407150268499</c:v>
+                  <c:v>0.36543011665344199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38732194900512601</c:v>
+                  <c:v>0.69101428985595703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61255979537963801</c:v>
+                  <c:v>1.01195263862609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.932120561599731</c:v>
+                  <c:v>1.45066595077514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2588913440704299</c:v>
+                  <c:v>2.0582830905914302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.57381963729858</c:v>
+                  <c:v>2.85009288787841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.00610303878784</c:v>
+                  <c:v>3.4401211738586399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4676148891448899</c:v>
+                  <c:v>4.1274387836456299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6441,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B1154C-DAAC-4837-8883-9C8BD276DC8D}">
   <dimension ref="C3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6451,8 +6451,8 @@
       <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.7726898193359299E-2</v>
+      <c r="D3">
+        <v>2.8821706771850499E-2</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -6460,7 +6460,7 @@
         <v>2000</v>
       </c>
       <c r="D4" s="4">
-        <v>0.110095739364624</v>
+        <v>0.16448330879211401</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -6468,7 +6468,7 @@
         <v>3000</v>
       </c>
       <c r="D5" s="4">
-        <v>0.21297407150268499</v>
+        <v>0.36543011665344199</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -6476,7 +6476,7 @@
         <v>4000</v>
       </c>
       <c r="D6" s="4">
-        <v>0.38732194900512601</v>
+        <v>0.69101428985595703</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6484,7 +6484,7 @@
         <v>5000</v>
       </c>
       <c r="D7" s="4">
-        <v>0.61255979537963801</v>
+        <v>1.01195263862609</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6492,7 +6492,7 @@
         <v>6000</v>
       </c>
       <c r="D8" s="4">
-        <v>0.932120561599731</v>
+        <v>1.45066595077514</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6500,7 +6500,7 @@
         <v>7000</v>
       </c>
       <c r="D9" s="4">
-        <v>1.2588913440704299</v>
+        <v>2.0582830905914302</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6508,7 +6508,7 @@
         <v>8000</v>
       </c>
       <c r="D10" s="4">
-        <v>1.57381963729858</v>
+        <v>2.85009288787841</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6516,7 +6516,7 @@
         <v>9000</v>
       </c>
       <c r="D11" s="4">
-        <v>2.00610303878784</v>
+        <v>3.4401211738586399</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6524,7 +6524,7 @@
         <v>10000</v>
       </c>
       <c r="D12" s="4">
-        <v>2.4676148891448899</v>
+        <v>4.1274387836456299</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30F36DF-0907-4515-80AC-DA0F35503E4D}">
   <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
